--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_47.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_47.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999438960845546</v>
+        <v>0.9371944456464332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8278015791763331</v>
+        <v>0.7431150584601762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8213309517621921</v>
+        <v>0.6399162617366301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999854525918462</v>
+        <v>0.904438663266066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002335340458383419</v>
+        <v>0.2614297967061001</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151491632948681</v>
+        <v>1.717790786923194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6390888257199839</v>
+        <v>1.287998652913306</v>
       </c>
       <c r="I2" t="n">
-        <v>9.479252246233732e-05</v>
+        <v>0.248830297025262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02606117430907735</v>
+        <v>1.197818608588537</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01528182076319252</v>
+        <v>0.5113020601426324</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003590650588507</v>
+        <v>0.914477543007909</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01552249416399649</v>
+        <v>0.5193545564753337</v>
       </c>
       <c r="N2" t="n">
-        <v>146.7243653697918</v>
+        <v>36.68317899071806</v>
       </c>
       <c r="O2" t="n">
-        <v>288.0595379130082</v>
+        <v>73.64776257894388</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999444906767743</v>
+        <v>0.9372139831824775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8277619503149133</v>
+        <v>0.7428234030474914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8212851155574091</v>
+        <v>0.6396751570044086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999846680702389</v>
+        <v>0.9036606895844987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000231059039850019</v>
+        <v>0.2613484711907248</v>
       </c>
       <c r="G3" t="n">
-        <v>1.151756631327469</v>
+        <v>1.719741088010767</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6392527791667564</v>
+        <v>1.288861070560406</v>
       </c>
       <c r="I3" t="n">
-        <v>9.990455213127505e-05</v>
+        <v>0.2508560474896073</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02574992604875813</v>
+        <v>1.197428557405355</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01520062629795296</v>
+        <v>0.511222526098689</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003552596686447</v>
+        <v>0.9145041473123098</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0154400209670941</v>
+        <v>0.5192737698497031</v>
       </c>
       <c r="N3" t="n">
-        <v>146.7456745926643</v>
+        <v>36.68380124700548</v>
       </c>
       <c r="O3" t="n">
-        <v>288.0808471358807</v>
+        <v>73.64838483523131</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999454900713229</v>
+        <v>0.9372314606386787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8277373506043657</v>
+        <v>0.7425374025601688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8212970016230999</v>
+        <v>0.6394357379922904</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999847814565391</v>
+        <v>0.9028850761244471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002268990333608432</v>
+        <v>0.2612757208126949</v>
       </c>
       <c r="G4" t="n">
-        <v>1.151921129705173</v>
+        <v>1.721653574586405</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6392102633989741</v>
+        <v>1.289717458484441</v>
       </c>
       <c r="I4" t="n">
-        <v>9.916571444234978e-05</v>
+        <v>0.2528756522192773</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02519987271626152</v>
+        <v>1.197040946872147</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01506316810504494</v>
+        <v>0.5111513678086902</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003488635435332</v>
+        <v>0.9145279464016051</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01530039794505556</v>
+        <v>0.519201490887769</v>
       </c>
       <c r="N4" t="n">
-        <v>146.7820108527731</v>
+        <v>36.68435805535545</v>
       </c>
       <c r="O4" t="n">
-        <v>288.1171833959895</v>
+        <v>73.64894164358127</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999457831159477</v>
+        <v>0.9372853169503716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8277081047039354</v>
+        <v>0.7383488342114117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8213041060727693</v>
+        <v>0.6360306804493983</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999829986463546</v>
+        <v>0.8915658695724837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002256792272866999</v>
+        <v>0.26105154247748</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152116697176015</v>
+        <v>1.749662550421127</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6391848511944465</v>
+        <v>1.301897151878786</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001107827030275679</v>
+        <v>0.2823495129319768</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02554385384025585</v>
+        <v>1.192253395251101</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01502262384827297</v>
+        <v>0.5109320331291433</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003469880579345</v>
+        <v>0.9146012826558252</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01525921515676882</v>
+        <v>0.5189787019062734</v>
       </c>
       <c r="N5" t="n">
-        <v>146.7927918304197</v>
+        <v>36.68607482079915</v>
       </c>
       <c r="O5" t="n">
-        <v>288.1279643736361</v>
+        <v>73.65065840902497</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999461417059844</v>
+        <v>0.9372772426789113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8276891286747099</v>
+        <v>0.7380814853438333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8212609875460319</v>
+        <v>0.6358199085271574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999815001949005</v>
+        <v>0.8908407812078685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002241865866856492</v>
+        <v>0.2610851518479912</v>
       </c>
       <c r="G6" t="n">
-        <v>1.152243589970822</v>
+        <v>1.751450313529653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6393390836644304</v>
+        <v>1.302651070823383</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001205467786363953</v>
+        <v>0.2842375563531266</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02603001992706012</v>
+        <v>1.191960454424414</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01497286167322898</v>
+        <v>0.5109649223263679</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003446930816999</v>
+        <v>0.9145902879031984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01520866927721181</v>
+        <v>0.5190121090754772</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8060637531324</v>
+        <v>36.68581734515399</v>
       </c>
       <c r="O6" t="n">
-        <v>288.1412362963488</v>
+        <v>73.65040093337981</v>
       </c>
     </row>
     <row r="7">
@@ -757,144 +757,144 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999463920125705</v>
+        <v>0.9372574760589053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8276279169904728</v>
+        <v>0.7375707609861654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.821169933814518</v>
+        <v>0.635403690417726</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999776448117232</v>
+        <v>0.8894015724003275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002231446788385418</v>
+        <v>0.2611674309314724</v>
       </c>
       <c r="G7" t="n">
-        <v>1.15265291278517</v>
+        <v>1.754865529661047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6396647775824569</v>
+        <v>1.304139858867107</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001456688823519163</v>
+        <v>0.2879850840385009</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02809473677472462</v>
+        <v>1.191374545974927</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01493802794342486</v>
+        <v>0.5110454294203916</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003430911195487</v>
+        <v>0.9145633716546796</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01517328695098423</v>
+        <v>0.5190938840757542</v>
       </c>
       <c r="N7" t="n">
-        <v>146.8153804256884</v>
+        <v>36.68518715901897</v>
       </c>
       <c r="O7" t="n">
-        <v>288.1505529689048</v>
+        <v>73.64977074724479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_7</t>
+          <t>model_1_47_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999948530013132</v>
+        <v>0.9372458558102799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8276093462122298</v>
+        <v>0.7373213613882573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8212235280679785</v>
+        <v>0.6351981349627291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999782285380282</v>
+        <v>0.8886874456217504</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002142451944238848</v>
+        <v>0.2612158005265993</v>
       </c>
       <c r="G8" t="n">
-        <v>1.152777095664791</v>
+        <v>1.756533265920638</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6394730740454019</v>
+        <v>1.30487511881084</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001418652571087951</v>
+        <v>0.2898445848000042</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02706984477358807</v>
+        <v>1.191083675036346</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01463711701203092</v>
+        <v>0.5110927513931295</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003294079159552</v>
+        <v>0.9145475483374024</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01486763697322141</v>
+        <v>0.519141951322258</v>
       </c>
       <c r="N8" t="n">
-        <v>146.8967788609962</v>
+        <v>36.68481678269482</v>
       </c>
       <c r="O8" t="n">
-        <v>288.2319514042126</v>
+        <v>73.64940037092065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_6</t>
+          <t>model_1_47_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999472825914592</v>
+        <v>0.9372331729761425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8276018475520341</v>
+        <v>0.7370726850175495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8212798993368069</v>
+        <v>0.6349945176980566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999773727882844</v>
+        <v>0.8879769144622408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002194376204391728</v>
+        <v>0.2612685931622877</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152827239240047</v>
+        <v>1.758196165956611</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6392714372853967</v>
+        <v>1.305603445960167</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001474414172022494</v>
+        <v>0.2916947229992921</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02771884840232131</v>
+        <v>1.190791160731431</v>
       </c>
       <c r="K9" t="n">
-        <v>0.014813427032229</v>
+        <v>0.5111443956088022</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003373914146614</v>
+        <v>0.9145302780951727</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01504672369999225</v>
+        <v>0.5191944088827024</v>
       </c>
       <c r="N9" t="n">
-        <v>146.8488851103633</v>
+        <v>36.68441261647278</v>
       </c>
       <c r="O9" t="n">
-        <v>288.1840576535797</v>
+        <v>73.64899620469861</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999491353095766</v>
+        <v>0.9372194324487847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8275919307626761</v>
+        <v>0.736826691870433</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8211834257808948</v>
+        <v>0.634792762286015</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999773808651539</v>
+        <v>0.8872702397457752</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002117256318135171</v>
+        <v>0.2613257884742433</v>
       </c>
       <c r="G10" t="n">
-        <v>1.152893552856147</v>
+        <v>1.759841123264073</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6396165176010361</v>
+        <v>1.306325113370588</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001473887874262453</v>
+        <v>0.29353481948191</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02699262158434024</v>
+        <v>1.190502627311552</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01455079488596816</v>
+        <v>0.5112003408393262</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003255340187096</v>
+        <v>0.9145115675898345</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01477995535996363</v>
+        <v>0.5192512351946824</v>
       </c>
       <c r="N10" t="n">
-        <v>146.9204386220754</v>
+        <v>36.68397483670175</v>
       </c>
       <c r="O10" t="n">
-        <v>288.2556111652918</v>
+        <v>73.64855842492757</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999492192902142</v>
+        <v>0.9370964387978119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8275634295453355</v>
+        <v>0.7351801122268868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.821128524066505</v>
+        <v>0.6334311408435254</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999754821631004</v>
+        <v>0.8824300224595513</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002113760601674973</v>
+        <v>0.2618377528299582</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15308414062774</v>
+        <v>1.770851808922268</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6398128978500239</v>
+        <v>1.311195554319027</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001597609402625257</v>
+        <v>0.3061381666739992</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02756478994931831</v>
+        <v>1.188520570477879</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01453877780858822</v>
+        <v>0.5117008431006913</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003249965426292</v>
+        <v>0.9143440868736162</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01476774902562763</v>
+        <v>0.5197596198663452</v>
       </c>
       <c r="N11" t="n">
-        <v>146.9237434703631</v>
+        <v>36.68006046210397</v>
       </c>
       <c r="O11" t="n">
-        <v>288.2589160135795</v>
+        <v>73.64464405032979</v>
       </c>
     </row>
   </sheetData>
